--- a/data/spreadsheet.xlsx
+++ b/data/spreadsheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t xml:space="preserve">email</t>
   </si>
@@ -52,520 +52,121 @@
     <t xml:space="preserve">usuario2@example.com</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Product</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> B</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">category</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
+    <t xml:space="preserve">Product B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category2</t>
   </si>
   <si>
     <t xml:space="preserve">usuario3@example.com</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Product</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> C</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">category</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
+    <t xml:space="preserve">Product C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category3</t>
   </si>
   <si>
     <t xml:space="preserve">usuario4@example.com</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Product</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">category</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
+    <t xml:space="preserve">Product D</t>
   </si>
   <si>
     <t xml:space="preserve">usuario5@example.com</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Product</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> E</t>
-    </r>
+    <t xml:space="preserve">Product E</t>
   </si>
   <si>
     <t xml:space="preserve">usuario6@example.com</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Product</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> F</t>
-    </r>
+    <t xml:space="preserve">Product F</t>
   </si>
   <si>
     <t xml:space="preserve">usuario7@example.com</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Product</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> G</t>
-    </r>
+    <t xml:space="preserve">Product G</t>
   </si>
   <si>
     <t xml:space="preserve">usuario8@example.com</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Product</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> H</t>
-    </r>
+    <t xml:space="preserve">Product H</t>
   </si>
   <si>
     <t xml:space="preserve">usuario9@example.com</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Product</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> I</t>
-    </r>
+    <t xml:space="preserve">Product I</t>
   </si>
   <si>
     <t xml:space="preserve">usuario10@example.com</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Product</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> J</t>
-    </r>
+    <t xml:space="preserve">Product J</t>
   </si>
   <si>
     <t xml:space="preserve">usuario11@example.com</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Product</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> K</t>
-    </r>
+    <t xml:space="preserve">Product K</t>
   </si>
   <si>
     <t xml:space="preserve">usuario12@example.com</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Product</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> L</t>
-    </r>
+    <t xml:space="preserve">Product L</t>
   </si>
   <si>
     <t xml:space="preserve">usuario13@example.com</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Product</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> M</t>
-    </r>
+    <t xml:space="preserve">Product M</t>
   </si>
   <si>
     <t xml:space="preserve">usuario14@example.com</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Product</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> N</t>
-    </r>
+    <t xml:space="preserve">Product N</t>
   </si>
   <si>
     <t xml:space="preserve">usuario15@example.com</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Product</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> O</t>
-    </r>
+    <t xml:space="preserve">Product O</t>
   </si>
   <si>
     <t xml:space="preserve">usuario16@example.com</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Product</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> P</t>
-    </r>
+    <t xml:space="preserve">Product P</t>
   </si>
   <si>
     <t xml:space="preserve">usuario17@example.com</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Product</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Q</t>
-    </r>
+    <t xml:space="preserve">Product Q</t>
   </si>
   <si>
     <t xml:space="preserve">usuario18@example.com</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Product</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> R</t>
-    </r>
+    <t xml:space="preserve">Product R</t>
   </si>
   <si>
     <t xml:space="preserve">usuario19@example.com</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Product</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> S</t>
-    </r>
+    <t xml:space="preserve">Product S</t>
   </si>
   <si>
     <t xml:space="preserve">usuario20@example.com</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Product</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> T</t>
-    </r>
+    <t xml:space="preserve">Product T</t>
   </si>
 </sst>
 </file>
@@ -576,7 +177,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -606,12 +207,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -655,7 +250,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -665,10 +260,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -692,10 +283,10 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
@@ -755,13 +346,13 @@
       <c r="C3" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -775,13 +366,13 @@
       <c r="C4" s="1" t="n">
         <v>350.75</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -795,19 +386,19 @@
       <c r="C5" s="1" t="n">
         <v>99.99</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>44931</v>
@@ -815,19 +406,19 @@
       <c r="C6" s="1" t="n">
         <v>499.99</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>44932</v>
@@ -835,19 +426,19 @@
       <c r="C7" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>44933</v>
@@ -855,19 +446,19 @@
       <c r="C8" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>17</v>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>44934</v>
@@ -875,19 +466,19 @@
       <c r="C9" s="1" t="n">
         <v>450.5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>25</v>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>44935</v>
@@ -895,19 +486,19 @@
       <c r="C10" s="1" t="n">
         <v>129.95</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>44936</v>
@@ -915,19 +506,19 @@
       <c r="C11" s="1" t="n">
         <v>89.9</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>29</v>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>17</v>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>44937</v>
@@ -935,19 +526,19 @@
       <c r="C12" s="1" t="n">
         <v>199.9</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>31</v>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>44938</v>
@@ -955,19 +546,19 @@
       <c r="C13" s="1" t="n">
         <v>149.5</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>33</v>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>44939</v>
@@ -975,19 +566,19 @@
       <c r="C14" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>17</v>
+      <c r="F14" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>44940</v>
@@ -995,19 +586,19 @@
       <c r="C15" s="1" t="n">
         <v>309.99</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>37</v>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>44941</v>
@@ -1015,19 +606,19 @@
       <c r="C16" s="1" t="n">
         <v>399</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>39</v>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>44942</v>
@@ -1035,19 +626,19 @@
       <c r="C17" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>41</v>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>17</v>
+      <c r="F17" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>44943</v>
@@ -1055,19 +646,19 @@
       <c r="C18" s="1" t="n">
         <v>159.99</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>43</v>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>44944</v>
@@ -1075,19 +666,19 @@
       <c r="C19" s="1" t="n">
         <v>289.95</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>45</v>
+      <c r="D19" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>44945</v>
@@ -1095,19 +686,19 @@
       <c r="C20" s="1" t="n">
         <v>349.9</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>47</v>
+      <c r="D20" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>17</v>
+      <c r="F20" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>44946</v>
@@ -1115,13 +706,13 @@
       <c r="C21" s="1" t="n">
         <v>399.99</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>49</v>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
